--- a/Seminar2/seminar2.xlsx
+++ b/Seminar2/seminar2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hw\homeWordBaseDate\Seminar2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DC5A3-E3EA-4FA3-A5FC-0D166D6B753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4166C4-D087-4DE9-A80E-275DCB518013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="705" windowWidth="14400" windowHeight="10755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="60">
   <si>
     <t>Общий список</t>
   </si>
@@ -205,6 +205,11 @@
   </si>
   <si>
     <t>Чей адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей
+Адрес</t>
   </si>
 </sst>
 </file>
@@ -284,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,21 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -328,27 +318,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,1246 +628,1243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" style="17"/>
-    <col min="7" max="7" width="19.5703125" style="17" customWidth="1"/>
-    <col min="8" max="9" width="17.140625" style="17"/>
-    <col min="10" max="10" width="4.28515625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="17.140625" style="17"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="16"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
         <v>32916</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
         <v>126</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
         <v>32916</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="6">
         <v>126</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
         <v>32916</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
         <v>127</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7">
         <v>32916</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <v>127</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
         <v>37152</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>527</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7">
         <v>37152</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="6">
         <v>527</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="Q6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>30429</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
         <v>234</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>30429</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <v>234</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10">
+      <c r="Q7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="5">
         <v>3</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>30430</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
         <v>235</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>30430</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5">
         <v>4</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="6">
         <v>235</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="5">
         <v>4</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>35936</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
         <v>456</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>35936</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <v>456</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>39276</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
         <v>643</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>39276</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5">
         <v>6</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="6">
         <v>643</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="Q10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>39276</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
         <v>654</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>39276</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5">
         <v>6</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="6">
         <v>654</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>31841</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
         <v>412</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>31841</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="M12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="5">
         <v>7</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="6">
         <v>412</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="5">
         <v>7</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>32736</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
         <v>723</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="10">
-        <v>8</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>32736</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="10">
-        <v>8</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="M13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
         <v>723</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="10">
-        <v>8</v>
-      </c>
-      <c r="T13" s="11" t="s">
+      <c r="S13" s="5">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>35438</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
         <v>876</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="10">
-        <v>9</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>35438</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="10">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
         <v>876</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10">
-        <v>9</v>
-      </c>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="5">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>35438</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>875</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="10">
-        <v>9</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="7">
         <v>35438</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="10">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="M15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9</v>
+      </c>
+      <c r="P15" s="6">
         <v>875</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="10">
-        <v>9</v>
-      </c>
-      <c r="T15" s="11" t="s">
+      <c r="S15" s="5">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>35402</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
         <v>933</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="7">
         <v>35402</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="M16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>10</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="6">
         <v>933</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="Q16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="5">
         <v>10</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="19">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
         <v>32916</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
         <v>32916</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
         <v>37152</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="2">
         <v>30429</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="2">
         <v>30430</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="2">
         <v>35936</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="2">
         <v>39276</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="2">
         <v>39276</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="2">
         <v>31841</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="2">
         <v>32736</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="2">
         <v>35438</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="2">
         <v>35438</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="2">
         <v>35402</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
         <v>32916</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
         <v>37152</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="21"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="2">
         <v>30429</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="18" t="s">
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="2">
         <v>30430</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="18" t="s">
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="2">
         <v>35936</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="18" t="s">
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="2">
         <v>39276</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48">
         <v>7</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="2">
         <v>31841</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>8</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="2">
         <v>32736</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>9</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="2">
         <v>35438</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="2">
         <v>35402</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="18" t="s">
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A37:XFD37"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1904,835 +1890,835 @@
     <col min="20" max="20" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
         <v>32916</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
         <v>126</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
         <v>32916</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="6">
         <v>126</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
         <v>32916</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
         <v>127</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7">
         <v>32916</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <v>127</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
         <v>37152</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>527</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7">
         <v>37152</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="6">
         <v>527</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="Q6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>30429</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
         <v>234</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>30429</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <v>234</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10">
+      <c r="Q7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="5">
         <v>3</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>30430</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
         <v>235</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>30430</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5">
         <v>4</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="6">
         <v>235</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="5">
         <v>4</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>35936</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
         <v>456</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>35936</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <v>456</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>39276</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
         <v>643</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>39276</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5">
         <v>6</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="6">
         <v>643</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="Q10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>39276</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
         <v>654</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>39276</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5">
         <v>6</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="6">
         <v>654</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>31841</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
         <v>412</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>31841</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="M12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="5">
         <v>7</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="6">
         <v>412</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="5">
         <v>7</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>32736</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
         <v>723</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="10">
-        <v>8</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>32736</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="10">
-        <v>8</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="M13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
         <v>723</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="10">
-        <v>8</v>
-      </c>
-      <c r="T13" s="11" t="s">
+      <c r="S13" s="5">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>35438</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
         <v>876</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="10">
-        <v>9</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>35438</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="10">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
         <v>876</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10">
-        <v>9</v>
-      </c>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="5">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>35438</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>875</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="10">
-        <v>9</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="7">
         <v>35438</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="10">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="M15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9</v>
+      </c>
+      <c r="P15" s="6">
         <v>875</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="10">
-        <v>9</v>
-      </c>
-      <c r="T15" s="11" t="s">
+      <c r="S15" s="5">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>35402</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
         <v>933</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="7">
         <v>35402</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="M16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>10</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="6">
         <v>933</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="Q16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="5">
         <v>10</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2742,14 +2728,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2790,14 +2776,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2846,10 +2832,10 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3016,854 +3002,854 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
         <v>32916</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
         <v>126</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
         <v>32916</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="6">
         <v>126</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
         <v>32916</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
         <v>127</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7">
         <v>32916</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <v>127</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
         <v>37152</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>527</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7">
         <v>37152</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="6">
         <v>527</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="Q6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>30429</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
         <v>234</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>30429</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <v>234</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10">
+      <c r="Q7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="5">
         <v>3</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>30430</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
         <v>235</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>30430</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5">
         <v>4</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="6">
         <v>235</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="5">
         <v>4</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>35936</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
         <v>456</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>35936</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <v>456</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>39276</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
         <v>643</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>39276</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5">
         <v>6</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="6">
         <v>643</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="Q10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>39276</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
         <v>654</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>39276</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5">
         <v>6</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="6">
         <v>654</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>31841</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
         <v>412</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>31841</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="M12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="5">
         <v>7</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="6">
         <v>412</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="5">
         <v>7</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>32736</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
         <v>723</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="10">
-        <v>8</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>32736</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="10">
-        <v>8</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="M13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
         <v>723</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="10">
-        <v>8</v>
-      </c>
-      <c r="T13" s="11" t="s">
+      <c r="S13" s="5">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>35438</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
         <v>876</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="10">
-        <v>9</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>35438</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="10">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
         <v>876</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10">
-        <v>9</v>
-      </c>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="5">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>35438</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>875</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="10">
-        <v>9</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="7">
         <v>35438</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="10">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="M15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9</v>
+      </c>
+      <c r="P15" s="6">
         <v>875</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="10">
-        <v>9</v>
-      </c>
-      <c r="T15" s="11" t="s">
+      <c r="S15" s="5">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>35402</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
         <v>933</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="7">
         <v>35402</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="M16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>10</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="6">
         <v>933</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="Q16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="5">
         <v>10</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -3891,20 +3877,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3944,10 +3930,10 @@
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4108,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0394FF4-DD8C-40C0-B03C-669285235652}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,854 +4112,854 @@
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
         <v>32916</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
         <v>126</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
         <v>32916</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="6">
         <v>126</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
         <v>32916</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
         <v>127</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7">
         <v>32916</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <v>127</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
         <v>37152</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>527</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7">
         <v>37152</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="6">
         <v>527</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="Q6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>30429</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
         <v>234</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>30429</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="M7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <v>234</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10">
+      <c r="Q7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="5">
         <v>3</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>30430</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
         <v>235</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>30430</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5">
         <v>4</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="6">
         <v>235</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="5">
         <v>4</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>35936</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
         <v>456</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>35936</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <v>456</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>39276</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
         <v>643</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>39276</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="5">
         <v>6</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="6">
         <v>643</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="Q10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>39276</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
         <v>654</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>39276</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="5">
         <v>6</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="6">
         <v>654</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>31841</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
         <v>412</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>31841</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="M12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="5">
         <v>7</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="6">
         <v>412</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="5">
         <v>7</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>32736</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
         <v>723</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="10">
-        <v>8</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>32736</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="10">
-        <v>8</v>
-      </c>
-      <c r="P13" s="11">
+      <c r="M13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
         <v>723</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="10">
-        <v>8</v>
-      </c>
-      <c r="T13" s="11" t="s">
+      <c r="S13" s="5">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>35438</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
         <v>876</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="10">
-        <v>9</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>35438</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="10">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
         <v>876</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="10">
-        <v>9</v>
-      </c>
-      <c r="T14" s="11" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="5">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>35438</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>875</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="10">
-        <v>9</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="7">
         <v>35438</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="10">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="M15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="5">
+        <v>9</v>
+      </c>
+      <c r="P15" s="6">
         <v>875</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="10">
-        <v>9</v>
-      </c>
-      <c r="T15" s="11" t="s">
+      <c r="S15" s="5">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>35402</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
         <v>933</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="5">
         <v>10</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="7">
         <v>35402</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="M16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
         <v>10</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="6">
         <v>933</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="Q16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="5">
         <v>10</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5015,22 +5001,22 @@
         <v>35438</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -5078,7 +5064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5104,7 +5090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5130,7 +5116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5156,7 +5142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -5182,7 +5168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5208,7 +5194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -5234,7 +5220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -5260,7 +5246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5286,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5312,7 +5298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -5338,7 +5324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -5364,7 +5350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -5390,7 +5376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -5416,13 +5402,307 @@
         <v>12</v>
       </c>
     </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="20">
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B48:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>